--- a/results/Table2_edited.xlsx
+++ b/results/Table2_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zulmacucunuba/Documents/GIT/autoimmune-after-covid/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFD19D-EA5E-0441-81D5-1BD8D5D2FDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB89154-4943-2342-A16F-213669605D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="9160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="218">
   <si>
     <t>Outcome</t>
   </si>
@@ -166,9 +166,6 @@
     <t>1.3*</t>
   </si>
   <si>
-    <t>1.05-1.05</t>
-  </si>
-  <si>
     <t>27.38</t>
   </si>
   <si>
@@ -178,18 +175,12 @@
     <t>3.21^</t>
   </si>
   <si>
-    <t>2.5-2.5</t>
-  </si>
-  <si>
     <t>10.17</t>
   </si>
   <si>
     <t>1.36*</t>
   </si>
   <si>
-    <t>1.13-1.13</t>
-  </si>
-  <si>
     <t>8.26</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>1.37*</t>
   </si>
   <si>
-    <t>0.71-0.71</t>
-  </si>
-  <si>
     <t>5.92</t>
   </si>
   <si>
@@ -220,9 +208,6 @@
     <t>1.1*</t>
   </si>
   <si>
-    <t>0.69-0.69</t>
-  </si>
-  <si>
     <t>5.07</t>
   </si>
   <si>
@@ -232,18 +217,12 @@
     <t>2.32^</t>
   </si>
   <si>
-    <t>1.38-1.38</t>
-  </si>
-  <si>
     <t>0.47</t>
   </si>
   <si>
     <t>2.42*</t>
   </si>
   <si>
-    <t>1.1-1.1</t>
-  </si>
-  <si>
     <t>7.02</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>1.54*</t>
   </si>
   <si>
-    <t>0.97-0.97</t>
-  </si>
-  <si>
     <t>46.46</t>
   </si>
   <si>
@@ -265,9 +241,6 @@
     <t>1.27*</t>
   </si>
   <si>
-    <t>1.07-1.07</t>
-  </si>
-  <si>
     <t>14.76</t>
   </si>
   <si>
@@ -277,15 +250,9 @@
     <t>1.96^</t>
   </si>
   <si>
-    <t>1.47-1.47</t>
-  </si>
-  <si>
     <t>1.82^</t>
   </si>
   <si>
-    <t>1.16-1.16</t>
-  </si>
-  <si>
     <t>264.42</t>
   </si>
   <si>
@@ -295,18 +262,12 @@
     <t>1.41*</t>
   </si>
   <si>
-    <t>1.31-1.31</t>
-  </si>
-  <si>
     <t>6.75</t>
   </si>
   <si>
     <t>1.12^</t>
   </si>
   <si>
-    <t>0.48-0.48</t>
-  </si>
-  <si>
     <t>4.65</t>
   </si>
   <si>
@@ -316,24 +277,15 @@
     <t>2.9^</t>
   </si>
   <si>
-    <t>0.72-0.72</t>
-  </si>
-  <si>
     <t>3.12</t>
   </si>
   <si>
     <t>2.14*</t>
   </si>
   <si>
-    <t>0.99-0.99</t>
-  </si>
-  <si>
     <t>2.16^</t>
   </si>
   <si>
-    <t>1.4-1.4</t>
-  </si>
-  <si>
     <t>325.69</t>
   </si>
   <si>
@@ -343,9 +295,6 @@
     <t>1.42*</t>
   </si>
   <si>
-    <t>1.33-1.33</t>
-  </si>
-  <si>
     <t>895.26</t>
   </si>
   <si>
@@ -355,9 +304,6 @@
     <t>1.78^</t>
   </si>
   <si>
-    <t>1.72-1.72</t>
-  </si>
-  <si>
     <t>15.66</t>
   </si>
   <si>
@@ -367,9 +313,6 @@
     <t>3.14^</t>
   </si>
   <si>
-    <t>2.26-2.26</t>
-  </si>
-  <si>
     <t>42.25</t>
   </si>
   <si>
@@ -379,9 +322,6 @@
     <t>1.2*</t>
   </si>
   <si>
-    <t>1.01-1.01</t>
-  </si>
-  <si>
     <t>6.39</t>
   </si>
   <si>
@@ -391,18 +331,12 @@
     <t>1.5*</t>
   </si>
   <si>
-    <t>0.93-0.93</t>
-  </si>
-  <si>
     <t>37.18</t>
   </si>
   <si>
     <t>13.86</t>
   </si>
   <si>
-    <t>2.36-2.36</t>
-  </si>
-  <si>
     <t>44.75</t>
   </si>
   <si>
@@ -412,18 +346,12 @@
     <t>1.24*</t>
   </si>
   <si>
-    <t>1.04-1.04</t>
-  </si>
-  <si>
     <t>6.24</t>
   </si>
   <si>
     <t>1.68</t>
   </si>
   <si>
-    <t>0.78-0.78</t>
-  </si>
-  <si>
     <t>221.65</t>
   </si>
   <si>
@@ -433,9 +361,6 @@
     <t>2.91^</t>
   </si>
   <si>
-    <t>2.67-2.67</t>
-  </si>
-  <si>
     <t>236.82</t>
   </si>
   <si>
@@ -445,9 +370,6 @@
     <t>1.17*</t>
   </si>
   <si>
-    <t>1.09-1.09</t>
-  </si>
-  <si>
     <t>324.3</t>
   </si>
   <si>
@@ -457,18 +379,12 @@
     <t>2.98^</t>
   </si>
   <si>
-    <t>2.78-2.78</t>
-  </si>
-  <si>
     <t>183.19</t>
   </si>
   <si>
     <t>43.29</t>
   </si>
   <si>
-    <t>1.3-1.3</t>
-  </si>
-  <si>
     <t>81.92</t>
   </si>
   <si>
@@ -478,9 +394,6 @@
     <t>2.62^</t>
   </si>
   <si>
-    <t>2.29-2.29</t>
-  </si>
-  <si>
     <t>94.17</t>
   </si>
   <si>
@@ -490,9 +403,6 @@
     <t>1.44*</t>
   </si>
   <si>
-    <t>1.27-1.27</t>
-  </si>
-  <si>
     <t>133.98</t>
   </si>
   <si>
@@ -502,9 +412,6 @@
     <t>2.99^</t>
   </si>
   <si>
-    <t>2.68-2.68</t>
-  </si>
-  <si>
     <t>9.82</t>
   </si>
   <si>
@@ -514,9 +421,6 @@
     <t>1.34*</t>
   </si>
   <si>
-    <t>0.92-0.92</t>
-  </si>
-  <si>
     <t>25.02</t>
   </si>
   <si>
@@ -526,9 +430,6 @@
     <t>2.58^</t>
   </si>
   <si>
-    <t>2.02-2.02</t>
-  </si>
-  <si>
     <t>5.46</t>
   </si>
   <si>
@@ -538,15 +439,9 @@
     <t>0.7*</t>
   </si>
   <si>
-    <t>0.45-0.45</t>
-  </si>
-  <si>
     <t>1.49^</t>
   </si>
   <si>
-    <t>1.11-1.11</t>
-  </si>
-  <si>
     <t>367.68</t>
   </si>
   <si>
@@ -556,9 +451,6 @@
     <t>2.68^</t>
   </si>
   <si>
-    <t>2.51-2.51</t>
-  </si>
-  <si>
     <t>104.09</t>
   </si>
   <si>
@@ -568,9 +460,6 @@
     <t>0.86*</t>
   </si>
   <si>
-    <t>0.62-0.62</t>
-  </si>
-  <si>
     <t>59.4</t>
   </si>
   <si>
@@ -580,18 +469,12 @@
     <t>1.25*</t>
   </si>
   <si>
-    <t>1.08-1.08</t>
-  </si>
-  <si>
     <t>5.61</t>
   </si>
   <si>
     <t>0.69^</t>
   </si>
   <si>
-    <t>0.42-0.42</t>
-  </si>
-  <si>
     <t>88.06</t>
   </si>
   <si>
@@ -601,9 +484,6 @@
     <t>1.1^</t>
   </si>
   <si>
-    <t>0.96-0.96</t>
-  </si>
-  <si>
     <t>19.98</t>
   </si>
   <si>
@@ -613,27 +493,18 @@
     <t>0.85^</t>
   </si>
   <si>
-    <t>0.7-0.7</t>
-  </si>
-  <si>
     <t>57.22</t>
   </si>
   <si>
     <t>14.78</t>
   </si>
   <si>
-    <t>1.12-1.12</t>
-  </si>
-  <si>
     <t>90.15</t>
   </si>
   <si>
     <t>50.03</t>
   </si>
   <si>
-    <t>1.74-1.74</t>
-  </si>
-  <si>
     <t>20.58</t>
   </si>
   <si>
@@ -646,9 +517,6 @@
     <t>2.51*</t>
   </si>
   <si>
-    <t>1.42-1.42</t>
-  </si>
-  <si>
     <t>Exp.</t>
   </si>
   <si>
@@ -659,9 +527,6 @@
   </si>
   <si>
     <t>41.00</t>
-  </si>
-  <si>
-    <t>Ref</t>
   </si>
   <si>
     <t>Central Est. 
@@ -672,6 +537,144 @@
   </si>
   <si>
     <t>6m</t>
+  </si>
+  <si>
+    <t>1.05-1.61</t>
+  </si>
+  <si>
+    <t>2.5-4.13</t>
+  </si>
+  <si>
+    <t>1.13-1.63</t>
+  </si>
+  <si>
+    <t>1.05-2.53</t>
+  </si>
+  <si>
+    <t>0.71-2.65</t>
+  </si>
+  <si>
+    <t>0.69-1.74</t>
+  </si>
+  <si>
+    <t>1.38-3.89</t>
+  </si>
+  <si>
+    <t>1.1-5.35</t>
+  </si>
+  <si>
+    <t>0.97-2.46</t>
+  </si>
+  <si>
+    <t>1.07-1.5</t>
+  </si>
+  <si>
+    <t>1.47-2.61</t>
+  </si>
+  <si>
+    <t>1.16-2.84</t>
+  </si>
+  <si>
+    <t>1.31-1.51</t>
+  </si>
+  <si>
+    <t>0.48-2.63</t>
+  </si>
+  <si>
+    <t>0.72-11.78</t>
+  </si>
+  <si>
+    <t>0.99-4.66</t>
+  </si>
+  <si>
+    <t>1.4-3.35</t>
+  </si>
+  <si>
+    <t>1.33-1.52</t>
+  </si>
+  <si>
+    <t>1.72-1.84</t>
+  </si>
+  <si>
+    <t>2.26-4.36</t>
+  </si>
+  <si>
+    <t>1.01-1.43</t>
+  </si>
+  <si>
+    <t>0.93-2.44</t>
+  </si>
+  <si>
+    <t>2.36-3.57</t>
+  </si>
+  <si>
+    <t>1.04-1.47</t>
+  </si>
+  <si>
+    <t>0.78-1.97</t>
+  </si>
+  <si>
+    <t>2.67-3.17</t>
+  </si>
+  <si>
+    <t>1.09-1.26</t>
+  </si>
+  <si>
+    <t>2.78-3.2</t>
+  </si>
+  <si>
+    <t>1.3-1.56</t>
+  </si>
+  <si>
+    <t>2.29-3</t>
+  </si>
+  <si>
+    <t>1.27-1.63</t>
+  </si>
+  <si>
+    <t>2.68-3.34</t>
+  </si>
+  <si>
+    <t>0.92-1.95</t>
+  </si>
+  <si>
+    <t>2.02-3.28</t>
+  </si>
+  <si>
+    <t>0.45-1.08</t>
+  </si>
+  <si>
+    <t>1.11-2</t>
+  </si>
+  <si>
+    <t>2.51-2.85</t>
+  </si>
+  <si>
+    <t>0.62-1.21</t>
+  </si>
+  <si>
+    <t>1.08-1.46</t>
+  </si>
+  <si>
+    <t>0.42-1.13</t>
+  </si>
+  <si>
+    <t>0.96-1.25</t>
+  </si>
+  <si>
+    <t>0.7-1.04</t>
+  </si>
+  <si>
+    <t>1.12-1.52</t>
+  </si>
+  <si>
+    <t>1.74-2.2</t>
+  </si>
+  <si>
+    <t>1.05-1.77</t>
+  </si>
+  <si>
+    <t>1.42-4.46</t>
   </si>
 </sst>
 </file>
@@ -1250,6 +1253,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1265,23 +1280,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1638,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R56" sqref="R56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1655,39 +1658,35 @@
     <col min="9" max="9" width="9.1640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="9" style="10" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="7"/>
+    <col min="12" max="16384" width="11.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1695,29 +1694,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="G2" s="21"/>
       <c r="H2" s="3" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1736,8 +1734,8 @@
       <c r="F3" s="9">
         <v>152</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>216</v>
+      <c r="G3" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -1749,12 +1747,11 @@
         <v>47</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1772,23 +1769,22 @@
       <c r="F4" s="9">
         <v>82</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1804,22 +1800,21 @@
       <c r="F5" s="9">
         <v>194</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="9" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1838,22 +1833,21 @@
       <c r="F6" s="9">
         <v>33</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1872,22 +1866,21 @@
       <c r="F7" s="9">
         <v>15</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1906,23 +1899,22 @@
       <c r="F8" s="9">
         <v>35</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1940,23 +1932,22 @@
       <c r="F9" s="9">
         <v>21</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1972,22 +1963,21 @@
       <c r="F10" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2006,22 +1996,21 @@
       <c r="F11" s="9">
         <v>29</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -2040,22 +2029,21 @@
       <c r="F12" s="9">
         <v>235</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2074,22 +2062,21 @@
       <c r="F13" s="9">
         <v>72</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -2104,18 +2091,17 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -2134,23 +2120,22 @@
       <c r="F15" s="9">
         <v>1207</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2168,23 +2153,22 @@
       <c r="F16" s="9">
         <v>11</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
@@ -2200,23 +2184,22 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
@@ -2232,23 +2215,22 @@
       <c r="F18" s="9">
         <v>9</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2260,18 +2242,17 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2290,22 +2271,21 @@
       <c r="F20" s="9">
         <v>1474</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="9" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2324,22 +2304,21 @@
       <c r="F21" s="9">
         <v>4863</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2358,22 +2337,21 @@
       <c r="F22" s="9">
         <v>48</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2392,22 +2370,21 @@
       <c r="F23" s="9">
         <v>226</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="9" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -2426,23 +2403,22 @@
       <c r="F24" s="9">
         <v>27</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2460,23 +2436,22 @@
       <c r="F25" s="9">
         <v>123</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="9" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
       <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
@@ -2492,22 +2467,21 @@
       <c r="F26" s="9">
         <v>233</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="9" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -2526,23 +2500,22 @@
       <c r="F27" s="9">
         <v>32</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="9" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2560,23 +2533,22 @@
       <c r="F28" s="9">
         <v>734</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
       <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
@@ -2592,23 +2564,22 @@
       <c r="F29" s="9">
         <v>1299</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="9" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2626,23 +2597,22 @@
       <c r="F30" s="9">
         <v>1044</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="9" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
       </c>
@@ -2658,23 +2628,22 @@
       <c r="F31" s="9">
         <v>826</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="9" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2692,23 +2661,22 @@
       <c r="F32" s="9">
         <v>301</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="9" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
       <c r="B33" s="6" t="s">
         <v>3</v>
       </c>
@@ -2724,23 +2692,22 @@
       <c r="F33" s="9">
         <v>419</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="9" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2758,23 +2725,22 @@
       <c r="F34" s="9">
         <v>429</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="9" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
       <c r="B35" s="6" t="s">
         <v>3</v>
       </c>
@@ -2790,23 +2756,22 @@
       <c r="F35" s="9">
         <v>47</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="9" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2824,23 +2789,22 @@
       <c r="F36" s="9">
         <v>93</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
       <c r="B37" s="6" t="s">
         <v>3</v>
       </c>
@@ -2856,22 +2820,21 @@
       <c r="F37" s="9">
         <v>50</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="9" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>31</v>
       </c>
@@ -2886,19 +2849,18 @@
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -2916,23 +2878,22 @@
       <c r="F39" s="9">
         <v>1318</v>
       </c>
-      <c r="G39" s="21"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="9" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
       <c r="B40" s="6" t="s">
         <v>33</v>
       </c>
@@ -2948,23 +2909,22 @@
       <c r="F40" s="9">
         <v>1005</v>
       </c>
-      <c r="G40" s="21"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="9" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
       <c r="B41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2980,23 +2940,22 @@
       <c r="F41" s="9">
         <v>304</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="9" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
       <c r="B42" s="6" t="s">
         <v>34</v>
       </c>
@@ -3012,23 +2971,22 @@
       <c r="F42" s="9">
         <v>83</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="9" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3046,23 +3004,22 @@
       <c r="F43" s="9">
         <v>641</v>
       </c>
-      <c r="G43" s="21"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="9" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
       <c r="B44" s="6" t="s">
         <v>36</v>
       </c>
@@ -3078,22 +3035,21 @@
       <c r="F44" s="9">
         <v>469</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="9" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -3112,22 +3068,21 @@
       <c r="F45" s="9">
         <v>282</v>
       </c>
-      <c r="G45" s="21"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="9" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -3146,22 +3101,21 @@
       <c r="F46" s="9">
         <v>444</v>
       </c>
-      <c r="G46" s="21"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="9" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -3180,22 +3134,21 @@
       <c r="F47" s="9">
         <v>97</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="9" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -3214,23 +3167,28 @@
       <c r="F48" s="9">
         <v>16</v>
       </c>
-      <c r="G48" s="21"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="L48" s="2"/>
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A39:A42"/>
@@ -3242,13 +3200,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
